--- a/Notes to Feedrates.xlsx
+++ b/Notes to Feedrates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Documents\Instructables and Projects\Ender 3 Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Documents\Instructables and Projects\Ender 3 Music\Musical Marlin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F4AE86-C2A7-401B-8B79-5AAB62BF99C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B142C2F-03E1-4798-812B-8ACE4722AD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,6 +40,8 @@
     <author>tc={5BE91EE4-0C73-48AD-96B3-9B0ADC33DCFF}</author>
     <author>tc={77F8B494-917A-419B-A1C7-F2896C323793}</author>
     <author>tc={9022A118-91B4-4C0A-AEF6-4B0EECCDBBC7}</author>
+    <author>tc={AD710ADF-6279-4375-A31D-37302B1F1EED}</author>
+    <author>tc={5936F004-4256-4A49-BA08-847FE5F048B2}</author>
   </authors>
   <commentList>
     <comment ref="C5" authorId="0" shapeId="0" xr:uid="{0D2843D2-8453-4E87-A7C4-E6F48B740EEB}">
@@ -82,12 +84,28 @@
     Deep C</t>
       </text>
     </comment>
+    <comment ref="A58" authorId="5" shapeId="0" xr:uid="{AD710ADF-6279-4375-A31D-37302B1F1EED}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Rest</t>
+      </text>
+    </comment>
+    <comment ref="B58" authorId="6" shapeId="0" xr:uid="{5936F004-4256-4A49-BA08-847FE5F048B2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This frequency is too low for human hearing to detect.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Notes to Feedrate</t>
   </si>
@@ -278,6 +296,9 @@
   </si>
   <si>
     <t>C2</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -350,12 +371,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -374,6 +389,12 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -466,11 +487,25 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,20 +516,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -799,15 +820,21 @@
   <threadedComment ref="A56" dT="2020-07-09T16:06:16.63" personId="{487AD812-A115-43C2-AB85-EAB74695BD91}" id="{9022A118-91B4-4C0A-AEF6-4B0EECCDBBC7}">
     <text>Deep C</text>
   </threadedComment>
+  <threadedComment ref="A58" dT="2020-07-09T19:14:23.84" personId="{487AD812-A115-43C2-AB85-EAB74695BD91}" id="{AD710ADF-6279-4375-A31D-37302B1F1EED}">
+    <text>Rest</text>
+  </threadedComment>
+  <threadedComment ref="B58" dT="2020-07-09T19:20:58.60" personId="{487AD812-A115-43C2-AB85-EAB74695BD91}" id="{5936F004-4256-4A49-BA08-847FE5F048B2}">
+    <text>This frequency is too low for human hearing to detect.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,193 +846,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10">
         <v>80</v>
       </c>
       <c r="D5" s="16"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="7">
         <v>1046.502</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="6">
         <f>(B8*60)/$C$5</f>
         <v>784.87649999999996</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="6">
         <f>ROUND(C8,0)</f>
         <v>785</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="7">
         <v>987.76660000000004</v>
       </c>
-      <c r="C9" s="13">
-        <f t="shared" ref="C9:C56" si="0">(B9*60)/$C$5</f>
+      <c r="C9" s="6">
+        <f t="shared" ref="C9:C58" si="0">(B9*60)/$C$5</f>
         <v>740.82494999999994</v>
       </c>
-      <c r="D9" s="13">
-        <f t="shared" ref="D9:D56" si="1">ROUND(C9,0)</f>
+      <c r="D9" s="6">
+        <f t="shared" ref="D9:D58" si="1">ROUND(C9,0)</f>
         <v>741</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="7">
         <v>932.32749999999999</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="6">
         <f t="shared" si="0"/>
         <v>699.24562500000002</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="6">
         <f t="shared" si="1"/>
         <v>699</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="8">
         <v>880</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="6">
         <f t="shared" si="1"/>
         <v>660</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="7">
         <v>830.60940000000005</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>622.95705000000009</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="6">
         <f t="shared" si="1"/>
         <v>623</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="7">
         <v>783.99090000000001</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
         <v>587.99317499999995</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="6">
         <f t="shared" si="1"/>
         <v>588</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="7">
         <v>739.98879999999997</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="6">
         <f t="shared" si="0"/>
         <v>554.99160000000006</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="6">
         <f t="shared" si="1"/>
         <v>555</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="7">
         <v>698.45650000000001</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="6">
         <f t="shared" si="0"/>
         <v>523.84237499999995</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="6">
         <f t="shared" si="1"/>
         <v>524</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="7">
         <v>659.25509999999997</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="6">
         <f t="shared" si="0"/>
         <v>494.44132499999995</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="6">
         <f t="shared" si="1"/>
         <v>494</v>
       </c>
@@ -1014,7 +1041,7 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="2">
         <v>622.25400000000002</v>
       </c>
       <c r="C17">
@@ -1030,7 +1057,7 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="2">
         <v>587.32950000000005</v>
       </c>
       <c r="C18">
@@ -1046,7 +1073,7 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="2">
         <v>554.36530000000005</v>
       </c>
       <c r="C19">
@@ -1062,7 +1089,7 @@
       <c r="A20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="2">
         <v>523.25109999999995</v>
       </c>
       <c r="C20">
@@ -1078,7 +1105,7 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="2">
         <v>493.88330000000002</v>
       </c>
       <c r="C21">
@@ -1094,7 +1121,7 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="2">
         <v>466.16379999999998</v>
       </c>
       <c r="C22">
@@ -1110,7 +1137,7 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="4">
         <v>440</v>
       </c>
       <c r="C23">
@@ -1126,7 +1153,7 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="2">
         <v>415.30470000000003</v>
       </c>
       <c r="C24">
@@ -1142,7 +1169,7 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="2">
         <v>391.99540000000002</v>
       </c>
       <c r="C25">
@@ -1158,7 +1185,7 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="2">
         <v>369.99439999999998</v>
       </c>
       <c r="C26">
@@ -1174,7 +1201,7 @@
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="2">
         <v>349.22820000000002</v>
       </c>
       <c r="C27">
@@ -1190,7 +1217,7 @@
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="2">
         <v>329.62759999999997</v>
       </c>
       <c r="C28">
@@ -1206,7 +1233,7 @@
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="2">
         <v>311.12700000000001</v>
       </c>
       <c r="C29">
@@ -1222,7 +1249,7 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="2">
         <v>293.66480000000001</v>
       </c>
       <c r="C30">
@@ -1238,7 +1265,7 @@
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="2">
         <v>277.18259999999998</v>
       </c>
       <c r="C31">
@@ -1254,7 +1281,7 @@
       <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="5">
         <v>261.62560000000002</v>
       </c>
       <c r="C32">
@@ -1270,7 +1297,7 @@
       <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="2">
         <v>246.9417</v>
       </c>
       <c r="C33">
@@ -1286,7 +1313,7 @@
       <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="2">
         <v>233.08189999999999</v>
       </c>
       <c r="C34">
@@ -1302,7 +1329,7 @@
       <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="3">
         <v>220</v>
       </c>
       <c r="C35">
@@ -1318,7 +1345,7 @@
       <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="2">
         <v>207.6523</v>
       </c>
       <c r="C36">
@@ -1334,7 +1361,7 @@
       <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="2">
         <v>195.99770000000001</v>
       </c>
       <c r="C37">
@@ -1350,7 +1377,7 @@
       <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="2">
         <v>184.99719999999999</v>
       </c>
       <c r="C38">
@@ -1366,7 +1393,7 @@
       <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="2">
         <v>174.61410000000001</v>
       </c>
       <c r="C39">
@@ -1382,7 +1409,7 @@
       <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="2">
         <v>164.81379999999999</v>
       </c>
       <c r="C40">
@@ -1398,7 +1425,7 @@
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="2">
         <v>155.5635</v>
       </c>
       <c r="C41">
@@ -1414,7 +1441,7 @@
       <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="2">
         <v>146.83240000000001</v>
       </c>
       <c r="C42">
@@ -1430,7 +1457,7 @@
       <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="2">
         <v>138.59129999999999</v>
       </c>
       <c r="C43">
@@ -1446,7 +1473,7 @@
       <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="2">
         <v>130.81280000000001</v>
       </c>
       <c r="C44">
@@ -1462,7 +1489,7 @@
       <c r="A45" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="2">
         <v>123.4708</v>
       </c>
       <c r="C45">
@@ -1478,7 +1505,7 @@
       <c r="A46" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="2">
         <v>116.54089999999999</v>
       </c>
       <c r="C46">
@@ -1494,7 +1521,7 @@
       <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="3">
         <v>110</v>
       </c>
       <c r="C47">
@@ -1510,7 +1537,7 @@
       <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="2">
         <v>103.8262</v>
       </c>
       <c r="C48">
@@ -1526,7 +1553,7 @@
       <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="2">
         <v>97.998859999999993</v>
       </c>
       <c r="C49">
@@ -1542,7 +1569,7 @@
       <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="2">
         <v>92.498609999999999</v>
       </c>
       <c r="C50">
@@ -1558,7 +1585,7 @@
       <c r="A51" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="2">
         <v>87.307060000000007</v>
       </c>
       <c r="C51">
@@ -1574,7 +1601,7 @@
       <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="2">
         <v>82.406890000000004</v>
       </c>
       <c r="C52">
@@ -1590,7 +1617,7 @@
       <c r="A53" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="2">
         <v>77.781750000000002</v>
       </c>
       <c r="C53">
@@ -1606,7 +1633,7 @@
       <c r="A54" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="2">
         <v>73.41619</v>
       </c>
       <c r="C54">
@@ -1622,7 +1649,7 @@
       <c r="A55" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="2">
         <v>69.295659999999998</v>
       </c>
       <c r="C55">
@@ -1638,7 +1665,7 @@
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="2">
         <v>65.406390000000002</v>
       </c>
       <c r="C56">
@@ -1648,6 +1675,22 @@
       <c r="D56">
         <f t="shared" si="1"/>
         <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Notes to Feedrates.xlsx
+++ b/Notes to Feedrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Documents\Instructables and Projects\Ender 3 Music\Musical Marlin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B142C2F-03E1-4798-812B-8ACE4722AD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7208D541-00BC-4A10-8AD7-F2AF82371EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,12 +389,6 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -833,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
